--- a/public/data.xlsx
+++ b/public/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/santoshparajuli/Developer/signcast/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F0F508-D183-8642-9F5C-32010CE26334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACACEBC-277B-0D44-8E91-2E719A5E0CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Screen MFR" sheetId="1" r:id="rId1"/>
@@ -597,9 +597,7 @@
   </sheetPr>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="169" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F36"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1422,6 +1420,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1432,8 +1431,8 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1692,7 +1691,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="191" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1959,6 +1958,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1969,7 +1969,9 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
@@ -2009,5 +2011,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>